--- a/BackTest/2019-10-22 BackTest POWR.xlsx
+++ b/BackTest/2019-10-22 BackTest POWR.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>3.09999999999998</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>6.666666666666793</v>
+      </c>
       <c r="L12" t="n">
         <v>53.15</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>3.399999999999977</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>18.51851851851859</v>
+      </c>
       <c r="L13" t="n">
         <v>53.14000000000001</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>3.399999999999977</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>-9.999999999999822</v>
+      </c>
       <c r="L14" t="n">
         <v>53.19000000000001</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>3.399999999999977</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>-9.999999999999822</v>
+      </c>
       <c r="L15" t="n">
         <v>53.17000000000002</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>3.399999999999977</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>38.46153846153855</v>
+      </c>
       <c r="L16" t="n">
         <v>53.15000000000002</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>3.699999999999982</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>-16.66666666666686</v>
+      </c>
       <c r="L17" t="n">
         <v>53.17000000000002</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>3.799999999999983</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>-16.66666666666686</v>
+      </c>
       <c r="L18" t="n">
         <v>53.16000000000001</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>3.899999999999984</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>-16.66666666666686</v>
+      </c>
       <c r="L19" t="n">
         <v>53.13000000000001</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>3.899999999999984</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>-16.66666666666686</v>
+      </c>
       <c r="L20" t="n">
         <v>53.11</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>3.899999999999984</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>-74.99999999999977</v>
+      </c>
       <c r="L21" t="n">
         <v>53.09</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>4.099999999999987</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>-14.28571428571428</v>
+      </c>
       <c r="L22" t="n">
         <v>53.05</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>4.099999999999987</v>
       </c>
       <c r="K23" t="n">
-        <v>-4.999999999999902</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L23" t="n">
         <v>53.04</v>
@@ -1466,7 +1488,7 @@
         <v>4.099999999999987</v>
       </c>
       <c r="K24" t="n">
-        <v>11.7647058823529</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L24" t="n">
         <v>53.02999999999999</v>
@@ -1515,7 +1537,7 @@
         <v>4.199999999999989</v>
       </c>
       <c r="K25" t="n">
-        <v>-7.14285714285698</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>53.02999999999999</v>
@@ -1564,7 +1586,7 @@
         <v>4.199999999999989</v>
       </c>
       <c r="K26" t="n">
-        <v>-7.14285714285698</v>
+        <v>60</v>
       </c>
       <c r="L26" t="n">
         <v>53.02999999999999</v>
@@ -1613,7 +1635,7 @@
         <v>4.499999999999986</v>
       </c>
       <c r="K27" t="n">
-        <v>33.33333333333314</v>
+        <v>71.42857142857115</v>
       </c>
       <c r="L27" t="n">
         <v>53.09</v>
@@ -1662,7 +1684,7 @@
         <v>4.499999999999986</v>
       </c>
       <c r="K28" t="n">
-        <v>19.99999999999986</v>
+        <v>100</v>
       </c>
       <c r="L28" t="n">
         <v>53.14</v>
@@ -1711,7 +1733,7 @@
         <v>4.899999999999984</v>
       </c>
       <c r="K29" t="n">
-        <v>-4.347826086956576</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L29" t="n">
         <v>53.16</v>
@@ -1760,7 +1782,7 @@
         <v>5.299999999999983</v>
       </c>
       <c r="K30" t="n">
-        <v>15.38461538461532</v>
+        <v>42.857142857143</v>
       </c>
       <c r="L30" t="n">
         <v>53.22000000000001</v>
@@ -1809,7 +1831,7 @@
         <v>5.799999999999983</v>
       </c>
       <c r="K31" t="n">
-        <v>29.03225806451607</v>
+        <v>52.94117647058828</v>
       </c>
       <c r="L31" t="n">
         <v>53.33000000000001</v>
@@ -1860,7 +1882,7 @@
         <v>6.299999999999983</v>
       </c>
       <c r="K32" t="n">
-        <v>31.24999999999997</v>
+        <v>63.63636363636369</v>
       </c>
       <c r="L32" t="n">
         <v>53.47000000000001</v>
@@ -1911,7 +1933,7 @@
         <v>6.299999999999983</v>
       </c>
       <c r="K33" t="n">
-        <v>44.82758620689636</v>
+        <v>63.63636363636369</v>
       </c>
       <c r="L33" t="n">
         <v>53.61</v>
@@ -1962,7 +1984,7 @@
         <v>6.499999999999986</v>
       </c>
       <c r="K34" t="n">
-        <v>48.38709677419342</v>
+        <v>65.2173913043479</v>
       </c>
       <c r="L34" t="n">
         <v>53.77</v>
@@ -2013,7 +2035,7 @@
         <v>6.59999999999998</v>
       </c>
       <c r="K35" t="n">
-        <v>49.99999999999978</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L35" t="n">
         <v>53.92999999999999</v>
